--- a/Pesca y Acuicultura/19.1.xlsx
+++ b/Pesca y Acuicultura/19.1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BCN\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Pesca y Acuicultura\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Pesca y Acuicultura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31EDAC1C-5D6C-471F-AE91-014B3B5A3E3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CCA0DD-6920-41F7-8A4D-8FF648A5EB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4B99F20C-0E5E-4172-A630-C3CED2BF40C5}"/>
   </bookViews>
@@ -794,7 +794,7 @@
   <dimension ref="A1:O82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4670,8 +4670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC37D32-0B97-475E-B182-4E7ACE698D1D}">
   <dimension ref="A2:B29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
